--- a/biology/Zoologie/Hepialus/Hepialus.xlsx
+++ b/biology/Zoologie/Hepialus/Hepialus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hepialus est un genre de lépidoptères (papillons) de nuit de la famille des Hepialidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste partielle d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 juin 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 juin 2019) :
 Hepialus californicus
 Hepialus fusconebulosus
 Hepialus humuli - Hépiale du houblon (présente en Europe)
@@ -549,10 +563,12 @@
           <t>Liste complète d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon Catalogue of Life                                   (5 mai 2022)[2] :
+Selon Catalogue of Life                                   (5 mai 2022) :
 Hepialus adriaticus Osthelder, 1931
 Hepialus aemilianus Constantini, 1911
 Hepialus amasinus Herrich-Schäffer, 1851
@@ -562,7 +578,7 @@
 Hepialus bertrandi Le Cerf, 1936
 Hepialus californicus Boisduval, 1868
 Hepialus carna Denis &amp; Schiffermüller, 1775
-Hepialus confusus Edwards, [1885]
+Hepialus confusus Edwards, 
 Hepialus crocatus Ureta, 1956
 Hepialus dobrogensis Caradja, 1932
 Hepialus ebba Bryk, 1950	accepted
